--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset/ifoCAST_qoq_errors_latest_eval_ifoCASTset.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset/ifoCAST_qoq_errors_latest_eval_ifoCASTset.xlsx
@@ -14,96 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
   <si>
-    <t>2010-08-13 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2010-11-12 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-02-15 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-05-13 00:00:00_diff</t>
   </si>
   <si>
-    <t>2011-08-16 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2011-11-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-02-15 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-05-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2012-08-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2012-11-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-02-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-05-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2013-08-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2013-11-14 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-02-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-05-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2014-08-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2014-11-14 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-02-13 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-05-13 00:00:00_diff</t>
   </si>
   <si>
-    <t>2015-08-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2015-11-13 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-02-12 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-05-13 00:00:00_diff</t>
   </si>
   <si>
-    <t>2016-08-12 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2016-11-15 00:00:00_diff</t>
   </si>
   <si>
-    <t>2017-02-14 00:00:00_diff</t>
-  </si>
-  <si>
     <t>2017-05-12 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2017-08-15 00:00:00_diff</t>
   </si>
   <si>
     <t>2017-11-14 00:00:00_diff</t>
@@ -488,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.7232243240218281</v>
+        <v>-0.2108005235673606</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -512,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.2108005235673606</v>
+        <v>0.08175882102122817</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -520,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.7102835122514271</v>
+        <v>0.2425414591811436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -528,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08175882102122817</v>
+        <v>-0.2443585595298122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -536,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2069340505412665</v>
+        <v>0.2071469665638192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -544,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2425414591811436</v>
+        <v>-0.629907264762905</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.2856695240160144</v>
+        <v>0.1877905183579434</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -560,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.2443585595298122</v>
+        <v>0.1127378227640456</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -568,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.0328250331236809</v>
+        <v>-0.3554926357487633</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -576,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2071469665638192</v>
+        <v>-0.03876254906217108</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -584,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6671992256697777</v>
+        <v>-0.1180757897227926</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -592,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.629907264762905</v>
+        <v>0.1280992733419928</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -600,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.4641064565136757</v>
+        <v>0.6578157636148243</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -608,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.1877905183579434</v>
+        <v>0.09712904792026367</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -616,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.107092182032835</v>
+        <v>-0.498687692421097</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -624,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.1127378227640456</v>
+        <v>1.091616403212854</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -632,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.1231201329834661</v>
+        <v>-0.9248061335412983</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -640,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.3554926357487633</v>
+        <v>0.7050420708917194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -648,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.8956819700779459</v>
+        <v>-0.1983056255900477</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -656,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.03876254906217108</v>
+        <v>-0.05473514207561558</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -664,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.09702229197194157</v>
+        <v>-0.3600970208997532</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -672,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.1180757897227926</v>
+        <v>-0.1472640067212066</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -680,126 +635,6 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.3531057704380284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.1280992733419928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>-0.4748599102928379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0.6578157636148243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>-0.7510554112160671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0.09712904792026367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>-0.4141007561265503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>-0.498687692421097</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.091616403212854</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>-0.9248061335412983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0.7050420708917194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>-0.1983056255900477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>-0.05473514207561558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>-0.3600970208997532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>-0.1472640067212066</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
         <v>0.3581255938617731</v>
       </c>
     </row>
